--- a/dailyWorkReport.xlsx
+++ b/dailyWorkReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="72">
   <si>
     <t>Wednesday</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>debugging project (working on executors)</t>
+  </si>
+  <si>
+    <t>99.05.16</t>
   </si>
 </sst>
 </file>
@@ -661,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B24" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1369,6 +1372,9 @@
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>2</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/dailyWorkReport.xlsx
+++ b/dailyWorkReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="73">
   <si>
     <t>Wednesday</t>
   </si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>99.05.16</t>
+  </si>
+  <si>
+    <t>working on deposit  &amp; payment thread</t>
   </si>
 </sst>
 </file>
@@ -327,7 +330,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -358,6 +361,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -664,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="B20" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1359,6 +1365,18 @@
       </c>
       <c r="B42" s="1" t="s">
         <v>68</v>
+      </c>
+      <c r="C42" s="9">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D42" s="9">
+        <v>0.875</v>
+      </c>
+      <c r="E42" s="1">
+        <v>7</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">

--- a/dailyWorkReport.xlsx
+++ b/dailyWorkReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="82">
   <si>
     <t>Wednesday</t>
   </si>
@@ -222,9 +222,6 @@
     <t>99.05.13</t>
   </si>
   <si>
-    <t>99.05.14</t>
-  </si>
-  <si>
     <t>99.05.15</t>
   </si>
   <si>
@@ -232,6 +229,36 @@
   </si>
   <si>
     <t>99.05.16</t>
+  </si>
+  <si>
+    <t>99.05.18</t>
+  </si>
+  <si>
+    <t>99.05.19</t>
+  </si>
+  <si>
+    <t>implement deposite and payment thread</t>
+  </si>
+  <si>
+    <t>99.05.20</t>
+  </si>
+  <si>
+    <t>debugging project , working on payment thread</t>
+  </si>
+  <si>
+    <t>99.05.21</t>
+  </si>
+  <si>
+    <t>99.05.22</t>
+  </si>
+  <si>
+    <t>99.05.23</t>
+  </si>
+  <si>
+    <t>99.05.24</t>
+  </si>
+  <si>
+    <t>refactor &amp; debugging first project- Start analyzing the second project</t>
   </si>
   <si>
     <t>working on deposit  &amp; payment thread</t>
@@ -668,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B20" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1276,7 +1303,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F37" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1376,7 +1403,7 @@
         <v>7</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1384,7 +1411,19 @@
         <v>1</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="C43" s="9">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D43" s="9">
+        <v>0.875</v>
+      </c>
+      <c r="E43" s="1">
+        <v>7</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1392,7 +1431,99 @@
         <v>2</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D47" s="9">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E47" s="1">
+        <v>8</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" s="9">
+        <v>0.375</v>
+      </c>
+      <c r="D48" s="9">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E48" s="1">
+        <v>7</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" s="9">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D49" s="9">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E49" s="1">
+        <v>7</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/dailyWorkReport.xlsx
+++ b/dailyWorkReport.xlsx
@@ -258,10 +258,10 @@
     <t>99.05.24</t>
   </si>
   <si>
-    <t>refactor &amp; debugging first project- Start analyzing the second project</t>
-  </si>
-  <si>
     <t>working on deposit  &amp; payment thread</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refactor &amp; debugging first project- Start analyzing the second project    </t>
   </si>
 </sst>
 </file>
@@ -697,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1403,7 +1403,7 @@
         <v>7</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1499,7 +1499,7 @@
         <v>7</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">

--- a/dailyWorkReport.xlsx
+++ b/dailyWorkReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="98">
   <si>
     <t>Wednesday</t>
   </si>
@@ -210,9 +210,6 @@
     <t xml:space="preserve">debugging project </t>
   </si>
   <si>
-    <t>99.05.10</t>
-  </si>
-  <si>
     <t>99.05.11</t>
   </si>
   <si>
@@ -262,6 +259,57 @@
   </si>
   <si>
     <t xml:space="preserve">refactor &amp; debugging first project- Start analyzing the second project    </t>
+  </si>
+  <si>
+    <t>working on ERD diagram, and project configuration</t>
+  </si>
+  <si>
+    <t>define models, repository, service and controller</t>
+  </si>
+  <si>
+    <t>99.05.25</t>
+  </si>
+  <si>
+    <t>99.05.26</t>
+  </si>
+  <si>
+    <t>99.05.27</t>
+  </si>
+  <si>
+    <t>99.05.28</t>
+  </si>
+  <si>
+    <t>99.05.29</t>
+  </si>
+  <si>
+    <t>99.05.30</t>
+  </si>
+  <si>
+    <t>99.05.31</t>
+  </si>
+  <si>
+    <t>debugging first project, working on seconde project service</t>
+  </si>
+  <si>
+    <t>modification Entity Relationship Diagram</t>
+  </si>
+  <si>
+    <t>modification Entity Relationship Diagram, watching video how to use my SQL dataBsae</t>
+  </si>
+  <si>
+    <t>how to use connect spring project to my sql data base, search ManyToMany relation</t>
+  </si>
+  <si>
+    <t>debugging first project, working on seconde project Entity</t>
+  </si>
+  <si>
+    <t>99.05.14</t>
+  </si>
+  <si>
+    <t>99.05.17</t>
+  </si>
+  <si>
+    <t>working on second project</t>
   </si>
 </sst>
 </file>
@@ -357,7 +405,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -392,6 +440,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -695,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:XFD60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1303,7 +1354,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F37" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1330,7 +1381,7 @@
       <c r="A39" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="12" t="s">
         <v>65</v>
       </c>
       <c r="C39" s="9">
@@ -1350,7 +1401,7 @@
       <c r="A40" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="12" t="s">
         <v>66</v>
       </c>
       <c r="C40" s="9">
@@ -1370,8 +1421,8 @@
       <c r="A41" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>67</v>
+      <c r="B41" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="C41" s="9">
         <v>0.58333333333333337</v>
@@ -1390,8 +1441,8 @@
       <c r="A42" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>68</v>
+      <c r="B42" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="C42" s="9">
         <v>0.54166666666666663</v>
@@ -1403,15 +1454,15 @@
         <v>7</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>70</v>
+      <c r="B43" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="C43" s="9">
         <v>0.54166666666666663</v>
@@ -1430,8 +1481,8 @@
       <c r="A44" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>70</v>
+      <c r="B44" s="12" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1439,7 +1490,7 @@
         <v>3</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1447,7 +1498,7 @@
         <v>4</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C47" s="9">
         <v>0.33333333333333331</v>
@@ -1459,7 +1510,7 @@
         <v>8</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1467,7 +1518,7 @@
         <v>5</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C48" s="9">
         <v>0.375</v>
@@ -1479,15 +1530,15 @@
         <v>7</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C49" s="9">
         <v>0.45833333333333331</v>
@@ -1499,32 +1550,187 @@
         <v>7</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="C50" s="9">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D50" s="9">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E50" s="1">
+        <v>8</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="C51" s="9">
+        <v>0.375</v>
+      </c>
+      <c r="D51" s="9">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E51" s="12">
+        <v>7</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>79</v>
-      </c>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D54" s="9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E54" s="1">
+        <v>7</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" s="9">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D55" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="E55" s="1">
+        <v>7</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" s="9">
+        <v>0.375</v>
+      </c>
+      <c r="D56" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="E56" s="12">
+        <v>8</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" s="9">
+        <v>0.375</v>
+      </c>
+      <c r="D57" s="9">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E57" s="12">
+        <v>7</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C58" s="9">
+        <v>0.375</v>
+      </c>
+      <c r="D58" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="E58" s="12">
+        <v>8</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" s="9">
+        <v>0.375</v>
+      </c>
+      <c r="D59" s="9">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E59" s="1">
+        <v>7</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G59" s="13"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
